--- a/NTT.xlsx
+++ b/NTT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13512" windowHeight="6348" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13512" windowHeight="6348" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="1087">
   <si>
     <t>PDRB</t>
   </si>
@@ -3690,8 +3690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection sqref="A1:A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7895,2631 +7895,2964 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection sqref="A1:A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>635</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>636</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>637</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>638</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>639</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>2022</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>778</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="G2" s="32" t="s">
         <v>880</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="H2" s="37" t="s">
         <v>990</v>
       </c>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>2022</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="F3" s="26" t="s">
         <v>779</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>881</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="H3" s="37" t="s">
         <v>991</v>
       </c>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>2022</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>658</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="F4" s="26" t="s">
         <v>780</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="G4" s="32" t="s">
         <v>882</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="H4" s="37" t="s">
         <v>992</v>
       </c>
-      <c r="H4" s="23"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>2022</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="F5" s="26" t="s">
         <v>781</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="G5" s="32" t="s">
         <v>883</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="H5" s="37" t="s">
         <v>993</v>
       </c>
-      <c r="H5" s="23"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
         <v>2022</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="F6" s="26" t="s">
         <v>782</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="G6" s="32" t="s">
         <v>884</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="H6" s="37" t="s">
         <v>994</v>
       </c>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
         <v>2022</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="F7" s="26" t="s">
         <v>783</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="G7" s="32" t="s">
         <v>885</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="H7" s="37" t="s">
         <v>995</v>
       </c>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
         <v>2022</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="F8" s="26" t="s">
         <v>784</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="G8" s="32" t="s">
         <v>886</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="H8" s="37" t="s">
         <v>996</v>
       </c>
-      <c r="H8" s="23"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
         <v>2022</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="F9" s="26" t="s">
         <v>785</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="G9" s="32" t="s">
         <v>887</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="H9" s="37" t="s">
         <v>997</v>
       </c>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
         <v>2022</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>663</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="F10" s="26" t="s">
         <v>786</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="G10" s="32" t="s">
         <v>888</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="H10" s="37" t="s">
         <v>998</v>
       </c>
-      <c r="H10" s="23"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
         <v>2022</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>664</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="F11" s="26" t="s">
         <v>787</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="G11" s="32" t="s">
         <v>889</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="H11" s="37" t="s">
         <v>999</v>
       </c>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
         <v>2022</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="E12" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="F12" s="26" t="s">
         <v>788</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="G12" s="32" t="s">
         <v>890</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="H12" s="37" t="s">
         <v>1000</v>
       </c>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
         <v>2022</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>666</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="E13" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="F13" s="26" t="s">
         <v>789</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="G13" s="32" t="s">
         <v>891</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="H13" s="37" t="s">
         <v>1001</v>
       </c>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
         <v>2022</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>667</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="E14" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="F14" s="26" t="s">
         <v>790</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="G14" s="32" t="s">
         <v>892</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="H14" s="37" t="s">
         <v>1002</v>
       </c>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
         <v>2022</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="E15" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="F15" s="26" t="s">
         <v>791</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="G15" s="32" t="s">
         <v>893</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="H15" s="37" t="s">
         <v>1003</v>
       </c>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
         <v>2022</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="E16" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="F16" s="26" t="s">
         <v>792</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="G16" s="32" t="s">
         <v>894</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="H16" s="37" t="s">
         <v>1004</v>
       </c>
-      <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
         <v>2022</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="E17" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="F17" s="26" t="s">
         <v>793</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="G17" s="32" t="s">
         <v>895</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="H17" s="37" t="s">
         <v>1005</v>
       </c>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
         <v>2022</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>668</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="E18" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="F18" s="26" t="s">
         <v>794</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="G18" s="32" t="s">
         <v>896</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="H18" s="37" t="s">
         <v>1006</v>
       </c>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
         <v>2022</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>669</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="E19" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="F19" s="26" t="s">
         <v>795</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="G19" s="32" t="s">
         <v>897</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="H19" s="37" t="s">
         <v>1007</v>
       </c>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
         <v>2022</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>670</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="E20" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="F20" s="26" t="s">
         <v>796</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="G20" s="32" t="s">
         <v>898</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="H20" s="37" t="s">
         <v>1008</v>
       </c>
-      <c r="H20" s="23"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
         <v>2022</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>671</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="E21" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="F21" s="26" t="s">
         <v>797</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="G21" s="32" t="s">
         <v>899</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="H21" s="37" t="s">
         <v>1009</v>
       </c>
-      <c r="H21" s="23"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
         <v>2022</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="E22" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="F22" s="26" t="s">
         <v>798</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="G22" s="32" t="s">
         <v>900</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="H22" s="37" t="s">
         <v>1010</v>
       </c>
-      <c r="H22" s="23"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
         <v>2022</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="E23" s="18" t="s">
         <v>725</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="F23" s="26" t="s">
         <v>799</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="G23" s="32" t="s">
         <v>901</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="H23" s="37" t="s">
         <v>1011</v>
       </c>
-      <c r="H23" s="23"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
         <v>2021</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="D24" s="14" t="s">
         <v>674</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="E24" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="F24" s="27" t="s">
         <v>801</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="G24" s="33" t="s">
         <v>902</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="H24" s="38" t="s">
         <v>1012</v>
       </c>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
         <v>2021</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="D25" s="14" t="s">
         <v>675</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="E25" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="F25" s="27" t="s">
         <v>802</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="G25" s="33" t="s">
         <v>903</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="H25" s="38" t="s">
         <v>1013</v>
       </c>
-      <c r="H25" s="24"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
         <v>2021</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="D26" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="E26" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="F26" s="27" t="s">
         <v>803</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="G26" s="33" t="s">
         <v>904</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="H26" s="38" t="s">
         <v>1014</v>
       </c>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
         <v>2021</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="D27" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="E27" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="F27" s="27" t="s">
         <v>804</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="G27" s="33" t="s">
         <v>905</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="H27" s="38" t="s">
         <v>1015</v>
       </c>
-      <c r="H27" s="24"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="I27" s="24"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
         <v>2021</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="D28" s="14" t="s">
         <v>676</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="E28" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="F28" s="27" t="s">
         <v>805</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="G28" s="33" t="s">
         <v>906</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="H28" s="38" t="s">
         <v>1016</v>
       </c>
-      <c r="H28" s="24"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
         <v>2021</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="D29" s="14" t="s">
         <v>677</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="E29" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="F29" s="27" t="s">
         <v>806</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="G29" s="33" t="s">
         <v>907</v>
       </c>
-      <c r="G29" s="38" t="s">
+      <c r="H29" s="38" t="s">
         <v>1017</v>
       </c>
-      <c r="H29" s="24"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
         <v>2021</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="D30" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="E30" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="F30" s="27" t="s">
         <v>807</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="G30" s="33" t="s">
         <v>908</v>
       </c>
-      <c r="G30" s="38" t="s">
+      <c r="H30" s="38" t="s">
         <v>1018</v>
       </c>
-      <c r="H30" s="24"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
         <v>2021</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="D31" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="E31" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="F31" s="27" t="s">
         <v>808</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="G31" s="33" t="s">
         <v>909</v>
       </c>
-      <c r="G31" s="38" t="s">
+      <c r="H31" s="38" t="s">
         <v>1019</v>
       </c>
-      <c r="H31" s="24"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
         <v>2021</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="D32" s="14" t="s">
         <v>679</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="E32" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="F32" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="G32" s="33" t="s">
         <v>910</v>
       </c>
-      <c r="G32" s="38" t="s">
+      <c r="H32" s="38" t="s">
         <v>1020</v>
       </c>
-      <c r="H32" s="24"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="I32" s="24"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
         <v>2021</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="D33" s="14" t="s">
         <v>680</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="E33" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="F33" s="27" t="s">
         <v>810</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="G33" s="33" t="s">
         <v>911</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="H33" s="38" t="s">
         <v>1021</v>
       </c>
-      <c r="H33" s="24"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="I33" s="24"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34">
         <v>2021</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="D34" s="14" t="s">
         <v>665</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="E34" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="F34" s="27" t="s">
         <v>811</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="G34" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="G34" s="38" t="s">
+      <c r="H34" s="38" t="s">
         <v>991</v>
       </c>
-      <c r="H34" s="24"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35">
         <v>2021</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="D35" s="14" t="s">
         <v>681</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="E35" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="F35" s="27" t="s">
         <v>812</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="G35" s="33" t="s">
         <v>913</v>
       </c>
-      <c r="G35" s="38" t="s">
+      <c r="H35" s="38" t="s">
         <v>1022</v>
       </c>
-      <c r="H35" s="24"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="I35" s="24"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36">
         <v>2021</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="D36" s="14" t="s">
         <v>682</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="E36" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="F36" s="27" t="s">
         <v>813</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="G36" s="33" t="s">
         <v>914</v>
       </c>
-      <c r="G36" s="38" t="s">
+      <c r="H36" s="38" t="s">
         <v>1023</v>
       </c>
-      <c r="H36" s="24"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="I36" s="24"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37">
         <v>2021</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="D37" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="E37" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="F37" s="27" t="s">
         <v>814</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="G37" s="33" t="s">
         <v>915</v>
       </c>
-      <c r="G37" s="38" t="s">
+      <c r="H37" s="38" t="s">
         <v>1024</v>
       </c>
-      <c r="H37" s="24"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="I37" s="24"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38">
         <v>2021</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="D38" s="14" t="s">
         <v>684</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="E38" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="F38" s="27" t="s">
         <v>815</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="G38" s="33" t="s">
         <v>916</v>
       </c>
-      <c r="G38" s="38" t="s">
+      <c r="H38" s="38" t="s">
         <v>1019</v>
       </c>
-      <c r="H38" s="24"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="I38" s="24"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39">
         <v>2021</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="D39" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="E39" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="F39" s="27" t="s">
         <v>816</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="G39" s="33" t="s">
         <v>917</v>
       </c>
-      <c r="G39" s="38" t="s">
+      <c r="H39" s="38" t="s">
         <v>1025</v>
       </c>
-      <c r="H39" s="24"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="I39" s="24"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40">
         <v>2021</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="D40" s="14" t="s">
         <v>685</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="E40" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="F40" s="27" t="s">
         <v>817</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="G40" s="33" t="s">
         <v>918</v>
       </c>
-      <c r="G40" s="38" t="s">
+      <c r="H40" s="38" t="s">
         <v>1026</v>
       </c>
-      <c r="H40" s="24"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="I40" s="24"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41">
         <v>2021</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="D41" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="E41" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="F41" s="27" t="s">
         <v>818</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="G41" s="33" t="s">
         <v>919</v>
       </c>
-      <c r="G41" s="38" t="s">
+      <c r="H41" s="38" t="s">
         <v>1027</v>
       </c>
-      <c r="H41" s="24"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="I41" s="24"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42">
         <v>2021</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="D42" s="14" t="s">
         <v>686</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="E42" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="F42" s="27" t="s">
         <v>807</v>
       </c>
-      <c r="F42" s="33" t="s">
+      <c r="G42" s="33" t="s">
         <v>920</v>
       </c>
-      <c r="G42" s="38" t="s">
+      <c r="H42" s="38" t="s">
         <v>1028</v>
       </c>
-      <c r="H42" s="24"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="I42" s="24"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43">
         <v>2021</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="D43" s="14" t="s">
         <v>687</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="E43" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="F43" s="27" t="s">
         <v>819</v>
       </c>
-      <c r="F43" s="33" t="s">
+      <c r="G43" s="33" t="s">
         <v>921</v>
       </c>
-      <c r="G43" s="38" t="s">
+      <c r="H43" s="38" t="s">
         <v>1029</v>
       </c>
-      <c r="H43" s="24"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="I43" s="24"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44">
         <v>2021</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="D44" s="14" t="s">
         <v>679</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="E44" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="F44" s="27" t="s">
         <v>820</v>
       </c>
-      <c r="F44" s="33" t="s">
+      <c r="G44" s="33" t="s">
         <v>922</v>
       </c>
-      <c r="G44" s="38" t="s">
+      <c r="H44" s="38" t="s">
         <v>1030</v>
       </c>
-      <c r="H44" s="24"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="I44" s="24"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45">
         <v>2021</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="D45" s="14" t="s">
         <v>688</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="E45" s="19" t="s">
         <v>728</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="F45" s="27" t="s">
         <v>821</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="G45" s="33" t="s">
         <v>923</v>
       </c>
-      <c r="G45" s="38" t="s">
+      <c r="H45" s="38" t="s">
         <v>1031</v>
       </c>
-      <c r="H45" s="24"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46">
         <v>2020</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="D46" s="15" t="s">
         <v>687</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="E46" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="F46" s="28" t="s">
         <v>822</v>
       </c>
-      <c r="F46" s="34" t="s">
+      <c r="G46" s="34" t="s">
         <v>924</v>
       </c>
-      <c r="G46" s="39" t="s">
+      <c r="H46" s="39" t="s">
         <v>1032</v>
       </c>
-      <c r="H46" s="25"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="I46" s="25"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47">
         <v>2020</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="D47" s="15" t="s">
         <v>675</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="E47" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="F47" s="28" t="s">
         <v>823</v>
       </c>
-      <c r="F47" s="34" t="s">
+      <c r="G47" s="34" t="s">
         <v>925</v>
       </c>
-      <c r="G47" s="39" t="s">
+      <c r="H47" s="39" t="s">
         <v>998</v>
       </c>
-      <c r="H47" s="25"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="I47" s="25"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48">
         <v>2020</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="D48" s="15" t="s">
         <v>689</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="E48" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="E48" s="28" t="s">
+      <c r="F48" s="28" t="s">
         <v>824</v>
       </c>
-      <c r="F48" s="34" t="s">
+      <c r="G48" s="34" t="s">
         <v>926</v>
       </c>
-      <c r="G48" s="39" t="s">
+      <c r="H48" s="39" t="s">
         <v>1033</v>
       </c>
-      <c r="H48" s="25"/>
-    </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="I48" s="25"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49">
         <v>2020</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="D49" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="E49" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="E49" s="28" t="s">
+      <c r="F49" s="28" t="s">
         <v>825</v>
       </c>
-      <c r="F49" s="34" t="s">
+      <c r="G49" s="34" t="s">
         <v>927</v>
       </c>
-      <c r="G49" s="39" t="s">
+      <c r="H49" s="39" t="s">
         <v>1034</v>
       </c>
-      <c r="H49" s="25"/>
-    </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="I49" s="25"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
         <v>2020</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="D50" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="E50" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="F50" s="28" t="s">
         <v>822</v>
       </c>
-      <c r="F50" s="34" t="s">
+      <c r="G50" s="34" t="s">
         <v>928</v>
       </c>
-      <c r="G50" s="39" t="s">
+      <c r="H50" s="39" t="s">
         <v>1035</v>
       </c>
-      <c r="H50" s="25"/>
-    </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="I50" s="25"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51">
         <v>2020</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="D51" s="15" t="s">
         <v>690</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="E51" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="E51" s="28" t="s">
+      <c r="F51" s="28" t="s">
         <v>826</v>
       </c>
-      <c r="F51" s="34" t="s">
+      <c r="G51" s="34" t="s">
         <v>929</v>
       </c>
-      <c r="G51" s="39" t="s">
+      <c r="H51" s="39" t="s">
         <v>1036</v>
       </c>
-      <c r="H51" s="25"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="I51" s="25"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
         <v>2020</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="D52" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="E52" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="F52" s="28" t="s">
         <v>827</v>
       </c>
-      <c r="F52" s="34" t="s">
+      <c r="G52" s="34" t="s">
         <v>930</v>
       </c>
-      <c r="G52" s="39" t="s">
+      <c r="H52" s="39" t="s">
         <v>1037</v>
       </c>
-      <c r="H52" s="25"/>
-    </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="I52" s="25"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53">
         <v>2020</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="D53" s="15" t="s">
         <v>692</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="E53" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="F53" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="F53" s="34" t="s">
+      <c r="G53" s="34" t="s">
         <v>931</v>
       </c>
-      <c r="G53" s="39" t="s">
+      <c r="H53" s="39" t="s">
         <v>1038</v>
       </c>
-      <c r="H53" s="25"/>
-    </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="I53" s="25"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54">
         <v>2020</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="D54" s="15" t="s">
         <v>693</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="E54" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="E54" s="28" t="s">
+      <c r="F54" s="28" t="s">
         <v>809</v>
       </c>
-      <c r="F54" s="34" t="s">
+      <c r="G54" s="34" t="s">
         <v>932</v>
       </c>
-      <c r="G54" s="39" t="s">
+      <c r="H54" s="39" t="s">
         <v>1039</v>
       </c>
-      <c r="H54" s="25"/>
-    </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="I54" s="25"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55">
         <v>2020</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="D55" s="15" t="s">
         <v>694</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="E55" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="E55" s="28" t="s">
+      <c r="F55" s="28" t="s">
         <v>829</v>
       </c>
-      <c r="F55" s="34" t="s">
+      <c r="G55" s="34" t="s">
         <v>933</v>
       </c>
-      <c r="G55" s="39" t="s">
+      <c r="H55" s="39" t="s">
         <v>1040</v>
       </c>
-      <c r="H55" s="25"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="I55" s="25"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56">
         <v>2020</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="D56" s="15" t="s">
         <v>695</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="E56" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="E56" s="28" t="s">
+      <c r="F56" s="28" t="s">
         <v>830</v>
       </c>
-      <c r="F56" s="34" t="s">
+      <c r="G56" s="34" t="s">
         <v>934</v>
       </c>
-      <c r="G56" s="39" t="s">
+      <c r="H56" s="39" t="s">
         <v>1041</v>
       </c>
-      <c r="H56" s="25"/>
-    </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="I56" s="25"/>
+    </row>
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57">
         <v>2020</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="D57" s="15" t="s">
         <v>696</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="E57" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="F57" s="28" t="s">
         <v>812</v>
       </c>
-      <c r="F57" s="34" t="s">
+      <c r="G57" s="34" t="s">
         <v>935</v>
       </c>
-      <c r="G57" s="39" t="s">
+      <c r="H57" s="39" t="s">
         <v>1042</v>
       </c>
-      <c r="H57" s="25"/>
-    </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="I57" s="25"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58">
         <v>2020</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="D58" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="E58" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="E58" s="28" t="s">
+      <c r="F58" s="28" t="s">
         <v>831</v>
       </c>
-      <c r="F58" s="34" t="s">
+      <c r="G58" s="34" t="s">
         <v>936</v>
       </c>
-      <c r="G58" s="39" t="s">
+      <c r="H58" s="39" t="s">
         <v>1043</v>
       </c>
-      <c r="H58" s="25"/>
-    </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="I58" s="25"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59">
         <v>2020</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="D59" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="E59" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="F59" s="28" t="s">
         <v>832</v>
       </c>
-      <c r="F59" s="34" t="s">
+      <c r="G59" s="34" t="s">
         <v>937</v>
       </c>
-      <c r="G59" s="39" t="s">
+      <c r="H59" s="39" t="s">
         <v>1033</v>
       </c>
-      <c r="H59" s="25"/>
-    </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="I59" s="25"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60">
         <v>2020</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="D60" s="15" t="s">
         <v>697</v>
       </c>
-      <c r="D60" s="20" t="s">
+      <c r="E60" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="E60" s="28" t="s">
+      <c r="F60" s="28" t="s">
         <v>833</v>
       </c>
-      <c r="F60" s="34" t="s">
+      <c r="G60" s="34" t="s">
         <v>938</v>
       </c>
-      <c r="G60" s="39" t="s">
+      <c r="H60" s="39" t="s">
         <v>1044</v>
       </c>
-      <c r="H60" s="25"/>
-    </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="I60" s="25"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61">
         <v>2020</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="D61" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="E61" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="E61" s="28" t="s">
+      <c r="F61" s="28" t="s">
         <v>834</v>
       </c>
-      <c r="F61" s="34" t="s">
+      <c r="G61" s="34" t="s">
         <v>939</v>
       </c>
-      <c r="G61" s="39" t="s">
+      <c r="H61" s="39" t="s">
         <v>1045</v>
       </c>
-      <c r="H61" s="25"/>
-    </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="I61" s="25"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62">
         <v>2020</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="D62" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="E62" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="E62" s="28" t="s">
+      <c r="F62" s="28" t="s">
         <v>835</v>
       </c>
-      <c r="F62" s="34" t="s">
+      <c r="G62" s="34" t="s">
         <v>940</v>
       </c>
-      <c r="G62" s="39" t="s">
+      <c r="H62" s="39" t="s">
         <v>1046</v>
       </c>
-      <c r="H62" s="25"/>
-    </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="I62" s="25"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63">
         <v>2020</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="D63" s="15" t="s">
         <v>699</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="E63" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="E63" s="28" t="s">
+      <c r="F63" s="28" t="s">
         <v>836</v>
       </c>
-      <c r="F63" s="34" t="s">
+      <c r="G63" s="34" t="s">
         <v>941</v>
       </c>
-      <c r="G63" s="39" t="s">
+      <c r="H63" s="39" t="s">
         <v>1047</v>
       </c>
-      <c r="H63" s="25"/>
-    </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="I63" s="25"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64">
         <v>2020</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="D64" s="15" t="s">
         <v>662</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="E64" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="E64" s="28" t="s">
+      <c r="F64" s="28" t="s">
         <v>837</v>
       </c>
-      <c r="F64" s="34" t="s">
+      <c r="G64" s="34" t="s">
         <v>942</v>
       </c>
-      <c r="G64" s="39" t="s">
+      <c r="H64" s="39" t="s">
         <v>1048</v>
       </c>
-      <c r="H64" s="25"/>
-    </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="I64" s="25"/>
+    </row>
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65">
         <v>2020</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="D65" s="15" t="s">
         <v>700</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="E65" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="F65" s="28" t="s">
         <v>838</v>
       </c>
-      <c r="F65" s="34" t="s">
+      <c r="G65" s="34" t="s">
         <v>943</v>
       </c>
-      <c r="G65" s="39" t="s">
+      <c r="H65" s="39" t="s">
         <v>1049</v>
       </c>
-      <c r="H65" s="25"/>
-    </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="I65" s="25"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66">
         <v>2020</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="D66" s="15" t="s">
         <v>693</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="E66" s="20" t="s">
         <v>727</v>
       </c>
-      <c r="E66" s="28" t="s">
+      <c r="F66" s="28" t="s">
         <v>839</v>
       </c>
-      <c r="F66" s="34" t="s">
+      <c r="G66" s="34" t="s">
         <v>944</v>
       </c>
-      <c r="G66" s="39" t="s">
+      <c r="H66" s="39" t="s">
         <v>1050</v>
       </c>
-      <c r="H66" s="25"/>
-    </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="I66" s="25"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67">
         <v>2020</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="D67" s="15" t="s">
         <v>701</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="E67" s="20" t="s">
         <v>728</v>
       </c>
-      <c r="E67" s="28" t="s">
+      <c r="F67" s="28" t="s">
         <v>840</v>
       </c>
-      <c r="F67" s="34" t="s">
+      <c r="G67" s="34" t="s">
         <v>945</v>
       </c>
-      <c r="G67" s="39" t="s">
+      <c r="H67" s="39" t="s">
         <v>1051</v>
       </c>
-      <c r="H67" s="25"/>
-    </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="I67" s="25"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68">
         <v>2019</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="D68" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="E68" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="E68" s="29" t="s">
+      <c r="F68" s="29" t="s">
         <v>841</v>
       </c>
-      <c r="F68" s="35" t="s">
+      <c r="G68" s="35" t="s">
         <v>946</v>
       </c>
-      <c r="G68" s="40" t="s">
+      <c r="H68" s="40" t="s">
         <v>1052</v>
       </c>
-      <c r="H68" s="25"/>
-    </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="I68" s="25"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69">
         <v>2019</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="D69" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="E69" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="E69" s="29" t="s">
+      <c r="F69" s="29" t="s">
         <v>842</v>
       </c>
-      <c r="F69" s="35" t="s">
+      <c r="G69" s="35" t="s">
         <v>947</v>
       </c>
-      <c r="G69" s="40" t="s">
+      <c r="H69" s="40" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70">
         <v>2019</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="D70" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="E70" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="E70" s="29" t="s">
+      <c r="F70" s="29" t="s">
         <v>778</v>
       </c>
-      <c r="F70" s="35" t="s">
+      <c r="G70" s="35" t="s">
         <v>948</v>
       </c>
-      <c r="G70" s="40" t="s">
+      <c r="H70" s="40" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71">
         <v>2019</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="D71" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="E71" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="E71" s="29" t="s">
+      <c r="F71" s="29" t="s">
         <v>843</v>
       </c>
-      <c r="F71" s="35" t="s">
+      <c r="G71" s="35" t="s">
         <v>949</v>
       </c>
-      <c r="G71" s="40" t="s">
+      <c r="H71" s="40" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72">
         <v>2019</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="D72" s="16" t="s">
         <v>702</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="E72" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="E72" s="29" t="s">
+      <c r="F72" s="29" t="s">
         <v>844</v>
       </c>
-      <c r="F72" s="35" t="s">
+      <c r="G72" s="35" t="s">
         <v>950</v>
       </c>
-      <c r="G72" s="40" t="s">
+      <c r="H72" s="40" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73">
         <v>2019</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="D73" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="E73" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="E73" s="29" t="s">
+      <c r="F73" s="29" t="s">
         <v>845</v>
       </c>
-      <c r="F73" s="35" t="s">
+      <c r="G73" s="35" t="s">
         <v>951</v>
       </c>
-      <c r="G73" s="40" t="s">
+      <c r="H73" s="40" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74">
         <v>2019</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="D74" s="16" t="s">
         <v>703</v>
       </c>
-      <c r="D74" s="21" t="s">
+      <c r="E74" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="E74" s="29" t="s">
+      <c r="F74" s="29" t="s">
         <v>846</v>
       </c>
-      <c r="F74" s="35" t="s">
+      <c r="G74" s="35" t="s">
         <v>952</v>
       </c>
-      <c r="G74" s="40" t="s">
+      <c r="H74" s="40" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75">
         <v>2019</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="D75" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="D75" s="21" t="s">
+      <c r="E75" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="E75" s="29" t="s">
+      <c r="F75" s="29" t="s">
         <v>847</v>
       </c>
-      <c r="F75" s="35" t="s">
+      <c r="G75" s="35" t="s">
         <v>953</v>
       </c>
-      <c r="G75" s="40" t="s">
+      <c r="H75" s="40" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76">
         <v>2019</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="D76" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="E76" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="E76" s="29" t="s">
+      <c r="F76" s="29" t="s">
         <v>848</v>
       </c>
-      <c r="F76" s="35" t="s">
+      <c r="G76" s="35" t="s">
         <v>954</v>
       </c>
-      <c r="G76" s="40" t="s">
+      <c r="H76" s="40" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77">
         <v>2019</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="D77" s="16" t="s">
         <v>705</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="E77" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="E77" s="29" t="s">
+      <c r="F77" s="29" t="s">
         <v>808</v>
       </c>
-      <c r="F77" s="35" t="s">
+      <c r="G77" s="35" t="s">
         <v>955</v>
       </c>
-      <c r="G77" s="40" t="s">
+      <c r="H77" s="40" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78">
         <v>2019</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="D78" s="16" t="s">
         <v>665</v>
       </c>
-      <c r="D78" s="21" t="s">
+      <c r="E78" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="E78" s="29" t="s">
+      <c r="F78" s="29" t="s">
         <v>849</v>
       </c>
-      <c r="F78" s="35" t="s">
+      <c r="G78" s="35" t="s">
         <v>956</v>
       </c>
-      <c r="G78" s="40" t="s">
+      <c r="H78" s="40" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79">
         <v>2019</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="D79" s="16" t="s">
         <v>702</v>
       </c>
-      <c r="D79" s="21" t="s">
+      <c r="E79" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="E79" s="29" t="s">
+      <c r="F79" s="29" t="s">
         <v>850</v>
       </c>
-      <c r="F79" s="35" t="s">
+      <c r="G79" s="35" t="s">
         <v>957</v>
       </c>
-      <c r="G79" s="40" t="s">
+      <c r="H79" s="40" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80">
         <v>2019</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="D80" s="16" t="s">
         <v>677</v>
       </c>
-      <c r="D80" s="21" t="s">
+      <c r="E80" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="E80" s="29" t="s">
+      <c r="F80" s="29" t="s">
         <v>851</v>
       </c>
-      <c r="F80" s="35" t="s">
+      <c r="G80" s="35" t="s">
         <v>958</v>
       </c>
-      <c r="G80" s="40" t="s">
+      <c r="H80" s="40" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81">
         <v>2019</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="D81" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="D81" s="21" t="s">
+      <c r="E81" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="E81" s="29" t="s">
+      <c r="F81" s="29" t="s">
         <v>852</v>
       </c>
-      <c r="F81" s="35" t="s">
+      <c r="G81" s="35" t="s">
         <v>959</v>
       </c>
-      <c r="G81" s="40" t="s">
+      <c r="H81" s="40" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82">
         <v>2019</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="D82" s="16" t="s">
         <v>706</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="E82" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="E82" s="29" t="s">
+      <c r="F82" s="29" t="s">
         <v>853</v>
       </c>
-      <c r="F82" s="35" t="s">
+      <c r="G82" s="35" t="s">
         <v>960</v>
       </c>
-      <c r="G82" s="40" t="s">
+      <c r="H82" s="40" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83">
         <v>2019</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="D83" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="D83" s="21" t="s">
+      <c r="E83" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="E83" s="29" t="s">
+      <c r="F83" s="29" t="s">
         <v>854</v>
       </c>
-      <c r="F83" s="35" t="s">
+      <c r="G83" s="35" t="s">
         <v>961</v>
       </c>
-      <c r="G83" s="40" t="s">
+      <c r="H83" s="40" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84">
         <v>2019</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="D84" s="16" t="s">
         <v>707</v>
       </c>
-      <c r="D84" s="21" t="s">
+      <c r="E84" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="F84" s="29" t="s">
         <v>814</v>
       </c>
-      <c r="F84" s="35" t="s">
+      <c r="G84" s="35" t="s">
         <v>962</v>
       </c>
-      <c r="G84" s="40" t="s">
+      <c r="H84" s="40" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85">
         <v>2019</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="D85" s="16" t="s">
         <v>708</v>
       </c>
-      <c r="D85" s="21" t="s">
+      <c r="E85" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="E85" s="29" t="s">
+      <c r="F85" s="29" t="s">
         <v>855</v>
       </c>
-      <c r="F85" s="35" t="s">
+      <c r="G85" s="35" t="s">
         <v>963</v>
       </c>
-      <c r="G85" s="40" t="s">
+      <c r="H85" s="40" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86">
         <v>2019</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="D86" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="D86" s="21" t="s">
+      <c r="E86" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="E86" s="29" t="s">
+      <c r="F86" s="29" t="s">
         <v>856</v>
       </c>
-      <c r="F86" s="35" t="s">
+      <c r="G86" s="35" t="s">
         <v>964</v>
       </c>
-      <c r="G86" s="40" t="s">
+      <c r="H86" s="40" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87">
         <v>2019</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="D87" s="16" t="s">
         <v>709</v>
       </c>
-      <c r="D87" s="21" t="s">
+      <c r="E87" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="E87" s="29" t="s">
+      <c r="F87" s="29" t="s">
         <v>857</v>
       </c>
-      <c r="F87" s="35" t="s">
+      <c r="G87" s="35" t="s">
         <v>965</v>
       </c>
-      <c r="G87" s="40" t="s">
+      <c r="H87" s="40" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88">
         <v>2019</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="D88" s="16" t="s">
         <v>710</v>
       </c>
-      <c r="D88" s="21" t="s">
+      <c r="E88" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="E88" s="29" t="s">
+      <c r="F88" s="29" t="s">
         <v>858</v>
       </c>
-      <c r="F88" s="35" t="s">
+      <c r="G88" s="35" t="s">
         <v>966</v>
       </c>
-      <c r="G88" s="40" t="s">
+      <c r="H88" s="40" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89">
         <v>2019</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="D89" s="16" t="s">
         <v>711</v>
       </c>
-      <c r="D89" s="21" t="s">
+      <c r="E89" s="21" t="s">
         <v>730</v>
       </c>
-      <c r="E89" s="29" t="s">
+      <c r="F89" s="29" t="s">
         <v>859</v>
       </c>
-      <c r="F89" s="35" t="s">
+      <c r="G89" s="35" t="s">
         <v>967</v>
       </c>
-      <c r="G89" s="40" t="s">
+      <c r="H89" s="40" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90">
         <v>2018</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="D90" s="17" t="s">
         <v>712</v>
       </c>
-      <c r="D90" s="22" t="s">
+      <c r="E90" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="E90" s="30" t="s">
+      <c r="F90" s="30" t="s">
         <v>860</v>
       </c>
-      <c r="F90" s="36" t="s">
+      <c r="G90" s="36" t="s">
         <v>968</v>
       </c>
-      <c r="G90" s="41" t="s">
+      <c r="H90" s="41" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91">
         <v>2018</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C91" s="17" t="s">
+      <c r="D91" s="17" t="s">
         <v>657</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="E91" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="E91" s="30" t="s">
+      <c r="F91" s="30" t="s">
         <v>861</v>
       </c>
-      <c r="F91" s="36" t="s">
+      <c r="G91" s="36" t="s">
         <v>969</v>
       </c>
-      <c r="G91" s="41" t="s">
+      <c r="H91" s="41" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92">
         <v>2018</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C92" s="17" t="s">
+      <c r="D92" s="17" t="s">
         <v>703</v>
       </c>
-      <c r="D92" s="22" t="s">
+      <c r="E92" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="E92" s="30" t="s">
+      <c r="F92" s="30" t="s">
         <v>862</v>
       </c>
-      <c r="F92" s="36" t="s">
+      <c r="G92" s="36" t="s">
         <v>970</v>
       </c>
-      <c r="G92" s="41" t="s">
+      <c r="H92" s="41" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93">
         <v>2018</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="D93" s="17" t="s">
         <v>713</v>
       </c>
-      <c r="D93" s="22" t="s">
+      <c r="E93" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="E93" s="30" t="s">
+      <c r="F93" s="30" t="s">
         <v>863</v>
       </c>
-      <c r="F93" s="36" t="s">
+      <c r="G93" s="36" t="s">
         <v>971</v>
       </c>
-      <c r="G93" s="41" t="s">
+      <c r="H93" s="41" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94">
         <v>2018</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="D94" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="D94" s="22" t="s">
+      <c r="E94" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="E94" s="30" t="s">
+      <c r="F94" s="30" t="s">
         <v>864</v>
       </c>
-      <c r="F94" s="36" t="s">
+      <c r="G94" s="36" t="s">
         <v>972</v>
       </c>
-      <c r="G94" s="41" t="s">
+      <c r="H94" s="41" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95">
         <v>2018</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C95" s="17" t="s">
+      <c r="D95" s="17" t="s">
         <v>715</v>
       </c>
-      <c r="D95" s="22" t="s">
+      <c r="E95" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="E95" s="30" t="s">
+      <c r="F95" s="30" t="s">
         <v>865</v>
       </c>
-      <c r="F95" s="36" t="s">
+      <c r="G95" s="36" t="s">
         <v>973</v>
       </c>
-      <c r="G95" s="41" t="s">
+      <c r="H95" s="41" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96">
         <v>2018</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C96" s="17" t="s">
+      <c r="D96" s="17" t="s">
         <v>703</v>
       </c>
-      <c r="D96" s="22" t="s">
+      <c r="E96" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="E96" s="30" t="s">
+      <c r="F96" s="30" t="s">
         <v>866</v>
       </c>
-      <c r="F96" s="36" t="s">
+      <c r="G96" s="36" t="s">
         <v>974</v>
       </c>
-      <c r="G96" s="41" t="s">
+      <c r="H96" s="41" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97">
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97">
         <v>2018</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="D97" s="17" t="s">
         <v>686</v>
       </c>
-      <c r="D97" s="22" t="s">
+      <c r="E97" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="E97" s="30" t="s">
+      <c r="F97" s="30" t="s">
         <v>867</v>
       </c>
-      <c r="F97" s="36" t="s">
+      <c r="G97" s="36" t="s">
         <v>975</v>
       </c>
-      <c r="G97" s="41" t="s">
+      <c r="H97" s="41" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98">
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98">
         <v>2018</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="D98" s="17" t="s">
         <v>716</v>
       </c>
-      <c r="D98" s="22" t="s">
+      <c r="E98" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="E98" s="30" t="s">
+      <c r="F98" s="30" t="s">
         <v>862</v>
       </c>
-      <c r="F98" s="36" t="s">
+      <c r="G98" s="36" t="s">
         <v>976</v>
       </c>
-      <c r="G98" s="41" t="s">
+      <c r="H98" s="41" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99">
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99">
         <v>2018</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="D99" s="17" t="s">
         <v>717</v>
       </c>
-      <c r="D99" s="22" t="s">
+      <c r="E99" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="E99" s="30" t="s">
+      <c r="F99" s="30" t="s">
         <v>833</v>
       </c>
-      <c r="F99" s="36" t="s">
+      <c r="G99" s="36" t="s">
         <v>977</v>
       </c>
-      <c r="G99" s="41" t="s">
+      <c r="H99" s="41" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100">
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100">
         <v>2018</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="D100" s="17" t="s">
         <v>665</v>
       </c>
-      <c r="D100" s="22" t="s">
+      <c r="E100" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="E100" s="30" t="s">
+      <c r="F100" s="30" t="s">
         <v>868</v>
       </c>
-      <c r="F100" s="36" t="s">
+      <c r="G100" s="36" t="s">
         <v>978</v>
       </c>
-      <c r="G100" s="41" t="s">
+      <c r="H100" s="41" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101">
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101">
         <v>2018</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="D101" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="D101" s="22" t="s">
+      <c r="E101" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="E101" s="30" t="s">
+      <c r="F101" s="30" t="s">
         <v>869</v>
       </c>
-      <c r="F101" s="36" t="s">
+      <c r="G101" s="36" t="s">
         <v>979</v>
       </c>
-      <c r="G101" s="41" t="s">
+      <c r="H101" s="41" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102">
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102">
         <v>2018</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="D102" s="17" t="s">
         <v>715</v>
       </c>
-      <c r="D102" s="22" t="s">
+      <c r="E102" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="E102" s="30" t="s">
+      <c r="F102" s="30" t="s">
         <v>870</v>
       </c>
-      <c r="F102" s="36" t="s">
+      <c r="G102" s="36" t="s">
         <v>980</v>
       </c>
-      <c r="G102" s="41" t="s">
+      <c r="H102" s="41" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103">
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103">
         <v>2018</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="D103" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="D103" s="22" t="s">
+      <c r="E103" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="E103" s="30" t="s">
+      <c r="F103" s="30" t="s">
         <v>871</v>
       </c>
-      <c r="F103" s="36" t="s">
+      <c r="G103" s="36" t="s">
         <v>981</v>
       </c>
-      <c r="G103" s="41" t="s">
+      <c r="H103" s="41" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104">
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104">
         <v>2018</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C104" s="17" t="s">
+      <c r="D104" s="17" t="s">
         <v>719</v>
       </c>
-      <c r="D104" s="22" t="s">
+      <c r="E104" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="E104" s="30" t="s">
+      <c r="F104" s="30" t="s">
         <v>872</v>
       </c>
-      <c r="F104" s="36" t="s">
+      <c r="G104" s="36" t="s">
         <v>982</v>
       </c>
-      <c r="G104" s="41" t="s">
+      <c r="H104" s="41" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105">
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105">
         <v>2018</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C105" s="17" t="s">
+      <c r="D105" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="D105" s="22" t="s">
+      <c r="E105" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="E105" s="30" t="s">
+      <c r="F105" s="30" t="s">
         <v>873</v>
       </c>
-      <c r="F105" s="36" t="s">
+      <c r="G105" s="36" t="s">
         <v>983</v>
       </c>
-      <c r="G105" s="41" t="s">
+      <c r="H105" s="41" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106">
         <v>2018</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C106" s="17" t="s">
+      <c r="D106" s="17" t="s">
         <v>720</v>
       </c>
-      <c r="D106" s="22" t="s">
+      <c r="E106" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="E106" s="30" t="s">
+      <c r="F106" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="F106" s="36" t="s">
+      <c r="G106" s="36" t="s">
         <v>984</v>
       </c>
-      <c r="G106" s="41" t="s">
+      <c r="H106" s="41" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A107">
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107">
         <v>2018</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C107" s="17" t="s">
+      <c r="D107" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="D107" s="22" t="s">
+      <c r="E107" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="E107" s="30" t="s">
+      <c r="F107" s="30" t="s">
         <v>875</v>
       </c>
-      <c r="F107" s="36" t="s">
+      <c r="G107" s="36" t="s">
         <v>985</v>
       </c>
-      <c r="G107" s="41" t="s">
+      <c r="H107" s="41" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A108">
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108">
         <v>2018</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C108" s="17" t="s">
+      <c r="D108" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="D108" s="22" t="s">
+      <c r="E108" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="E108" s="30" t="s">
+      <c r="F108" s="30" t="s">
         <v>876</v>
       </c>
-      <c r="F108" s="36" t="s">
+      <c r="G108" s="36" t="s">
         <v>986</v>
       </c>
-      <c r="G108" s="41" t="s">
+      <c r="H108" s="41" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109">
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B109">
         <v>2018</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="D109" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="D109" s="22" t="s">
+      <c r="E109" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="E109" s="30" t="s">
+      <c r="F109" s="30" t="s">
         <v>877</v>
       </c>
-      <c r="F109" s="36" t="s">
+      <c r="G109" s="36" t="s">
         <v>987</v>
       </c>
-      <c r="G109" s="41" t="s">
+      <c r="H109" s="41" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A110">
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110">
         <v>2018</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C110" s="17" t="s">
+      <c r="D110" s="17" t="s">
         <v>663</v>
       </c>
-      <c r="D110" s="22" t="s">
+      <c r="E110" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="E110" s="30" t="s">
+      <c r="F110" s="30" t="s">
         <v>878</v>
       </c>
-      <c r="F110" s="36" t="s">
+      <c r="G110" s="36" t="s">
         <v>988</v>
       </c>
-      <c r="G110" s="41" t="s">
+      <c r="H110" s="41" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A111">
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B111">
         <v>2018</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C111" s="17" t="s">
+      <c r="D111" s="17" t="s">
         <v>723</v>
       </c>
-      <c r="D111" s="22" t="s">
+      <c r="E111" s="22" t="s">
         <v>732</v>
       </c>
-      <c r="E111" s="30" t="s">
+      <c r="F111" s="30" t="s">
         <v>879</v>
       </c>
-      <c r="F111" s="36" t="s">
+      <c r="G111" s="36" t="s">
         <v>989</v>
       </c>
-      <c r="G111" s="41" t="s">
+      <c r="H111" s="41" t="s">
         <v>1086</v>
       </c>
     </row>
@@ -10530,2108 +10863,2353 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A68" sqref="A68:A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>635</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>636</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>637</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>638</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>639</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>640</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>2022</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="D2" s="41" t="s">
         <v>656</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="E2" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="F2" s="41" t="s">
         <v>778</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="G2" s="41" t="s">
         <v>880</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="H2" s="41" t="s">
         <v>990</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="I2" s="41" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>2022</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="D3" s="41" t="s">
         <v>657</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="E3" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="F3" s="41" t="s">
         <v>779</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="G3" s="41" t="s">
         <v>881</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="H3" s="41" t="s">
         <v>991</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="I3" s="41" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>2022</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="D4" s="41" t="s">
         <v>658</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="E4" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="F4" s="41" t="s">
         <v>780</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="G4" s="41" t="s">
         <v>882</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="H4" s="41" t="s">
         <v>992</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="I4" s="41" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>2022</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="D5" s="41" t="s">
         <v>659</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="E5" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="F5" s="41" t="s">
         <v>781</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="G5" s="41" t="s">
         <v>883</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="H5" s="41" t="s">
         <v>993</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="I5" s="41" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
         <v>2022</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="D6" s="41" t="s">
         <v>660</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="E6" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="F6" s="41" t="s">
         <v>782</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="G6" s="41" t="s">
         <v>884</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="H6" s="41" t="s">
         <v>994</v>
       </c>
-      <c r="H6" s="41">
+      <c r="I6" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
         <v>2022</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="D7" s="41" t="s">
         <v>661</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="E7" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="F7" s="41" t="s">
         <v>783</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="G7" s="41" t="s">
         <v>885</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="H7" s="41" t="s">
         <v>995</v>
       </c>
-      <c r="H7" s="41">
+      <c r="I7" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
         <v>2022</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="D8" s="41" t="s">
         <v>404</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="E8" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="F8" s="41" t="s">
         <v>784</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="G8" s="41" t="s">
         <v>886</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="H8" s="41" t="s">
         <v>996</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="I8" s="41" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
         <v>2022</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="D9" s="41" t="s">
         <v>662</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="E9" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="F9" s="41" t="s">
         <v>785</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="G9" s="41" t="s">
         <v>887</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="H9" s="41" t="s">
         <v>997</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="I9" s="41" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
         <v>2022</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="D10" s="41" t="s">
         <v>663</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="E10" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="F10" s="41" t="s">
         <v>786</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="G10" s="41" t="s">
         <v>888</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="H10" s="41" t="s">
         <v>998</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="I10" s="41" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
         <v>2022</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="D11" s="41" t="s">
         <v>664</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="E11" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="F11" s="41" t="s">
         <v>787</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="G11" s="41" t="s">
         <v>889</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="H11" s="41" t="s">
         <v>999</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="I11" s="41" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
         <v>2022</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="D12" s="41" t="s">
         <v>665</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="E12" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="F12" s="41" t="s">
         <v>788</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="G12" s="41" t="s">
         <v>890</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="H12" s="41" t="s">
         <v>1000</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="I12" s="41" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
         <v>2022</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="D13" s="41" t="s">
         <v>666</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="E13" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="F13" s="41" t="s">
         <v>789</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="G13" s="41" t="s">
         <v>891</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="H13" s="41" t="s">
         <v>1001</v>
       </c>
-      <c r="H13" s="41">
+      <c r="I13" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
         <v>2022</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="D14" s="41" t="s">
         <v>667</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="E14" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="F14" s="41" t="s">
         <v>790</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="G14" s="41" t="s">
         <v>892</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="H14" s="41" t="s">
         <v>1002</v>
       </c>
-      <c r="H14" s="41">
+      <c r="I14" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
         <v>2022</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="D15" s="41" t="s">
         <v>659</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="E15" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="F15" s="41" t="s">
         <v>791</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="G15" s="41" t="s">
         <v>893</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="H15" s="41" t="s">
         <v>1003</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="I15" s="41" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
         <v>2022</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="D16" s="41" t="s">
         <v>390</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="E16" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="F16" s="41" t="s">
         <v>792</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="G16" s="41" t="s">
         <v>894</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="H16" s="41" t="s">
         <v>1004</v>
       </c>
-      <c r="H16" s="41" t="s">
+      <c r="I16" s="41" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
         <v>2022</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="D17" s="41" t="s">
         <v>402</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="E17" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="F17" s="41" t="s">
         <v>793</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="G17" s="41" t="s">
         <v>895</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="H17" s="41" t="s">
         <v>1005</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="I17" s="41" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
         <v>2022</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="D18" s="41" t="s">
         <v>668</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="E18" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="F18" s="41" t="s">
         <v>794</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="G18" s="41" t="s">
         <v>896</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="H18" s="41" t="s">
         <v>1006</v>
       </c>
-      <c r="H18" s="41" t="s">
+      <c r="I18" s="41" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
         <v>2022</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="D19" s="41" t="s">
         <v>669</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="E19" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="F19" s="41" t="s">
         <v>795</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="G19" s="41" t="s">
         <v>897</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="H19" s="41" t="s">
         <v>1007</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="I19" s="41" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
         <v>2022</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="D20" s="41" t="s">
         <v>670</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="E20" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="F20" s="41" t="s">
         <v>796</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="G20" s="41" t="s">
         <v>898</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="H20" s="41" t="s">
         <v>1008</v>
       </c>
-      <c r="H20" s="41">
+      <c r="I20" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
         <v>2022</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="D21" s="41" t="s">
         <v>671</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="E21" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="F21" s="41" t="s">
         <v>797</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="G21" s="41" t="s">
         <v>899</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="H21" s="41" t="s">
         <v>1009</v>
       </c>
-      <c r="H21" s="41">
+      <c r="I21" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
         <v>2022</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="D22" s="41" t="s">
         <v>672</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="E22" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="F22" s="41" t="s">
         <v>798</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="G22" s="41" t="s">
         <v>900</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="H22" s="41" t="s">
         <v>1010</v>
       </c>
-      <c r="H22" s="41">
+      <c r="I22" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
         <v>2022</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="D23" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="E23" s="41" t="s">
         <v>725</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="F23" s="41" t="s">
         <v>799</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="G23" s="41" t="s">
         <v>901</v>
       </c>
-      <c r="G23" s="41" t="s">
+      <c r="H23" s="41" t="s">
         <v>1011</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="I23" s="41" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
         <v>2021</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="D24" s="41" t="s">
         <v>674</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="E24" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="F24" s="41" t="s">
         <v>801</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="G24" s="41" t="s">
         <v>902</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="H24" s="41" t="s">
         <v>1012</v>
       </c>
-      <c r="H24" s="41" t="s">
+      <c r="I24" s="41" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
         <v>2021</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="D25" s="41" t="s">
         <v>675</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="E25" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="F25" s="41" t="s">
         <v>802</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="G25" s="41" t="s">
         <v>903</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="H25" s="41" t="s">
         <v>1013</v>
       </c>
-      <c r="H25" s="41" t="s">
+      <c r="I25" s="41" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
         <v>2021</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="D26" s="41" t="s">
         <v>395</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="E26" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="F26" s="41" t="s">
         <v>803</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="G26" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="H26" s="41" t="s">
         <v>1014</v>
       </c>
-      <c r="H26" s="41">
+      <c r="I26" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
         <v>2021</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="D27" s="41" t="s">
         <v>659</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="E27" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="F27" s="41" t="s">
         <v>804</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="G27" s="41" t="s">
         <v>905</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="H27" s="41" t="s">
         <v>1015</v>
       </c>
-      <c r="H27" s="41">
+      <c r="I27" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
         <v>2021</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="D28" s="41" t="s">
         <v>676</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="E28" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="F28" s="41" t="s">
         <v>805</v>
       </c>
-      <c r="F28" s="41" t="s">
+      <c r="G28" s="41" t="s">
         <v>906</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="H28" s="41" t="s">
         <v>1016</v>
       </c>
-      <c r="H28" s="41">
+      <c r="I28" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
         <v>2021</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="D29" s="41" t="s">
         <v>677</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="E29" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="F29" s="41" t="s">
         <v>806</v>
       </c>
-      <c r="F29" s="41" t="s">
+      <c r="G29" s="41" t="s">
         <v>907</v>
       </c>
-      <c r="G29" s="41" t="s">
+      <c r="H29" s="41" t="s">
         <v>1017</v>
       </c>
-      <c r="H29" s="41">
+      <c r="I29" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
         <v>2021</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="D30" s="41" t="s">
         <v>374</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="E30" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="F30" s="41" t="s">
         <v>807</v>
       </c>
-      <c r="F30" s="41" t="s">
+      <c r="G30" s="41" t="s">
         <v>908</v>
       </c>
-      <c r="G30" s="41" t="s">
+      <c r="H30" s="41" t="s">
         <v>1018</v>
       </c>
-      <c r="H30" s="41" t="s">
+      <c r="I30" s="41" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
         <v>2021</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="D31" s="41" t="s">
         <v>678</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="E31" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="F31" s="41" t="s">
         <v>808</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="G31" s="41" t="s">
         <v>909</v>
       </c>
-      <c r="G31" s="41" t="s">
+      <c r="H31" s="41" t="s">
         <v>1019</v>
       </c>
-      <c r="H31" s="41" t="s">
+      <c r="I31" s="41" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
         <v>2021</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="D32" s="41" t="s">
         <v>679</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="E32" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="F32" s="41" t="s">
         <v>809</v>
       </c>
-      <c r="F32" s="41" t="s">
+      <c r="G32" s="41" t="s">
         <v>910</v>
       </c>
-      <c r="G32" s="41" t="s">
+      <c r="H32" s="41" t="s">
         <v>1020</v>
       </c>
-      <c r="H32" s="41" t="s">
+      <c r="I32" s="41" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
         <v>2021</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="D33" s="41" t="s">
         <v>680</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="E33" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="F33" s="41" t="s">
         <v>810</v>
       </c>
-      <c r="F33" s="41" t="s">
+      <c r="G33" s="41" t="s">
         <v>911</v>
       </c>
-      <c r="G33" s="41" t="s">
+      <c r="H33" s="41" t="s">
         <v>1021</v>
       </c>
-      <c r="H33" s="41" t="s">
+      <c r="I33" s="41" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34">
         <v>2021</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="D34" s="41" t="s">
         <v>665</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="E34" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E34" s="41" t="s">
+      <c r="F34" s="41" t="s">
         <v>811</v>
       </c>
-      <c r="F34" s="41" t="s">
+      <c r="G34" s="41" t="s">
         <v>912</v>
       </c>
-      <c r="G34" s="41" t="s">
+      <c r="H34" s="41" t="s">
         <v>991</v>
       </c>
-      <c r="H34" s="41" t="s">
+      <c r="I34" s="41" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35">
         <v>2021</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="D35" s="41" t="s">
         <v>681</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="E35" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="F35" s="41" t="s">
         <v>812</v>
       </c>
-      <c r="F35" s="41" t="s">
+      <c r="G35" s="41" t="s">
         <v>913</v>
       </c>
-      <c r="G35" s="41" t="s">
+      <c r="H35" s="41" t="s">
         <v>1022</v>
       </c>
-      <c r="H35" s="41">
+      <c r="I35" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36">
         <v>2021</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="D36" s="41" t="s">
         <v>682</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="E36" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E36" s="41" t="s">
+      <c r="F36" s="41" t="s">
         <v>813</v>
       </c>
-      <c r="F36" s="41" t="s">
+      <c r="G36" s="41" t="s">
         <v>914</v>
       </c>
-      <c r="G36" s="41" t="s">
+      <c r="H36" s="41" t="s">
         <v>1023</v>
       </c>
-      <c r="H36" s="41" t="s">
+      <c r="I36" s="41" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37">
         <v>2021</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="D37" s="41" t="s">
         <v>683</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="E37" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E37" s="41" t="s">
+      <c r="F37" s="41" t="s">
         <v>814</v>
       </c>
-      <c r="F37" s="41" t="s">
+      <c r="G37" s="41" t="s">
         <v>915</v>
       </c>
-      <c r="G37" s="41" t="s">
+      <c r="H37" s="41" t="s">
         <v>1024</v>
       </c>
-      <c r="H37" s="41" t="s">
+      <c r="I37" s="41" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38">
         <v>2021</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="D38" s="41" t="s">
         <v>684</v>
       </c>
-      <c r="D38" s="41" t="s">
+      <c r="E38" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="F38" s="41" t="s">
         <v>815</v>
       </c>
-      <c r="F38" s="41" t="s">
+      <c r="G38" s="41" t="s">
         <v>916</v>
       </c>
-      <c r="G38" s="41" t="s">
+      <c r="H38" s="41" t="s">
         <v>1019</v>
       </c>
-      <c r="H38" s="41" t="s">
+      <c r="I38" s="41" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39">
         <v>2021</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="D39" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="E39" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="F39" s="41" t="s">
         <v>816</v>
       </c>
-      <c r="F39" s="41" t="s">
+      <c r="G39" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="G39" s="41" t="s">
+      <c r="H39" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="H39" s="41" t="s">
+      <c r="I39" s="41" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40">
         <v>2021</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="D40" s="41" t="s">
         <v>685</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="E40" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="F40" s="41" t="s">
         <v>817</v>
       </c>
-      <c r="F40" s="41" t="s">
+      <c r="G40" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="G40" s="41" t="s">
+      <c r="H40" s="41" t="s">
         <v>1026</v>
       </c>
-      <c r="H40" s="41" t="s">
+      <c r="I40" s="41" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41">
         <v>2021</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="D41" s="41" t="s">
         <v>381</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="E41" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="F41" s="41" t="s">
         <v>818</v>
       </c>
-      <c r="F41" s="41" t="s">
+      <c r="G41" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="G41" s="41" t="s">
+      <c r="H41" s="41" t="s">
         <v>1027</v>
       </c>
-      <c r="H41" s="41" t="s">
+      <c r="I41" s="41" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42">
         <v>2021</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="D42" s="41" t="s">
         <v>686</v>
       </c>
-      <c r="D42" s="41" t="s">
+      <c r="E42" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="F42" s="41" t="s">
         <v>807</v>
       </c>
-      <c r="F42" s="41" t="s">
+      <c r="G42" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="G42" s="41" t="s">
+      <c r="H42" s="41" t="s">
         <v>1028</v>
       </c>
-      <c r="H42" s="41">
+      <c r="I42" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43">
         <v>2021</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="D43" s="41" t="s">
         <v>687</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="E43" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="F43" s="41" t="s">
         <v>819</v>
       </c>
-      <c r="F43" s="41" t="s">
+      <c r="G43" s="41" t="s">
         <v>921</v>
       </c>
-      <c r="G43" s="41" t="s">
+      <c r="H43" s="41" t="s">
         <v>1029</v>
       </c>
-      <c r="H43" s="41">
+      <c r="I43" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44">
         <v>2021</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="D44" s="41" t="s">
         <v>679</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="E44" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E44" s="41" t="s">
+      <c r="F44" s="41" t="s">
         <v>820</v>
       </c>
-      <c r="F44" s="41" t="s">
+      <c r="G44" s="41" t="s">
         <v>922</v>
       </c>
-      <c r="G44" s="41" t="s">
+      <c r="H44" s="41" t="s">
         <v>1030</v>
       </c>
-      <c r="H44" s="41">
+      <c r="I44" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45">
         <v>2021</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="D45" s="41" t="s">
         <v>688</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="E45" s="41" t="s">
         <v>728</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="F45" s="41" t="s">
         <v>821</v>
       </c>
-      <c r="F45" s="41" t="s">
+      <c r="G45" s="41" t="s">
         <v>923</v>
       </c>
-      <c r="G45" s="41" t="s">
+      <c r="H45" s="41" t="s">
         <v>1031</v>
       </c>
-      <c r="H45" s="41" t="s">
+      <c r="I45" s="41" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46">
         <v>2020</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="D46" s="41" t="s">
         <v>687</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="E46" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E46" s="41" t="s">
+      <c r="F46" s="41" t="s">
         <v>822</v>
       </c>
-      <c r="F46" s="41" t="s">
+      <c r="G46" s="41" t="s">
         <v>924</v>
       </c>
-      <c r="G46" s="41" t="s">
+      <c r="H46" s="41" t="s">
         <v>1032</v>
       </c>
-      <c r="H46" s="41" t="s">
+      <c r="I46" s="41" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47">
         <v>2020</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="D47" s="41" t="s">
         <v>675</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="E47" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E47" s="41" t="s">
+      <c r="F47" s="41" t="s">
         <v>823</v>
       </c>
-      <c r="F47" s="41" t="s">
+      <c r="G47" s="41" t="s">
         <v>925</v>
       </c>
-      <c r="G47" s="41" t="s">
+      <c r="H47" s="41" t="s">
         <v>998</v>
       </c>
-      <c r="H47" s="41" t="s">
+      <c r="I47" s="41" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48">
         <v>2020</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="D48" s="41" t="s">
         <v>689</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="E48" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E48" s="41" t="s">
+      <c r="F48" s="41" t="s">
         <v>824</v>
       </c>
-      <c r="F48" s="41" t="s">
+      <c r="G48" s="41" t="s">
         <v>926</v>
       </c>
-      <c r="G48" s="41" t="s">
+      <c r="H48" s="41" t="s">
         <v>1033</v>
       </c>
-      <c r="H48" s="41" t="s">
+      <c r="I48" s="41" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49">
         <v>2020</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="D49" s="41" t="s">
         <v>381</v>
       </c>
-      <c r="D49" s="41" t="s">
+      <c r="E49" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E49" s="41" t="s">
+      <c r="F49" s="41" t="s">
         <v>825</v>
       </c>
-      <c r="F49" s="41" t="s">
+      <c r="G49" s="41" t="s">
         <v>927</v>
       </c>
-      <c r="G49" s="41" t="s">
+      <c r="H49" s="41" t="s">
         <v>1034</v>
       </c>
-      <c r="H49" s="41" t="s">
+      <c r="I49" s="41" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
         <v>2020</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="D50" s="41" t="s">
         <v>681</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="E50" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E50" s="41" t="s">
+      <c r="F50" s="41" t="s">
         <v>822</v>
       </c>
-      <c r="F50" s="41" t="s">
+      <c r="G50" s="41" t="s">
         <v>928</v>
       </c>
-      <c r="G50" s="41" t="s">
+      <c r="H50" s="41" t="s">
         <v>1035</v>
       </c>
-      <c r="H50" s="41">
+      <c r="I50" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51">
         <v>2020</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="D51" s="41" t="s">
         <v>690</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="E51" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="F51" s="41" t="s">
         <v>826</v>
       </c>
-      <c r="F51" s="41" t="s">
+      <c r="G51" s="41" t="s">
         <v>929</v>
       </c>
-      <c r="G51" s="41" t="s">
+      <c r="H51" s="41" t="s">
         <v>1036</v>
       </c>
-      <c r="H51" s="41">
+      <c r="I51" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
         <v>2020</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="D52" s="41" t="s">
         <v>691</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="E52" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E52" s="41" t="s">
+      <c r="F52" s="41" t="s">
         <v>827</v>
       </c>
-      <c r="F52" s="41" t="s">
+      <c r="G52" s="41" t="s">
         <v>930</v>
       </c>
-      <c r="G52" s="41" t="s">
+      <c r="H52" s="41" t="s">
         <v>1037</v>
       </c>
-      <c r="H52" s="41" t="s">
+      <c r="I52" s="41" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53">
         <v>2020</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="D53" s="41" t="s">
         <v>692</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="E53" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E53" s="41" t="s">
+      <c r="F53" s="41" t="s">
         <v>828</v>
       </c>
-      <c r="F53" s="41" t="s">
+      <c r="G53" s="41" t="s">
         <v>931</v>
       </c>
-      <c r="G53" s="41" t="s">
+      <c r="H53" s="41" t="s">
         <v>1038</v>
       </c>
-      <c r="H53" s="41" t="s">
+      <c r="I53" s="41" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54">
         <v>2020</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="D54" s="41" t="s">
         <v>693</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="E54" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E54" s="41" t="s">
+      <c r="F54" s="41" t="s">
         <v>809</v>
       </c>
-      <c r="F54" s="41" t="s">
+      <c r="G54" s="41" t="s">
         <v>932</v>
       </c>
-      <c r="G54" s="41" t="s">
+      <c r="H54" s="41" t="s">
         <v>1039</v>
       </c>
-      <c r="H54" s="41" t="s">
+      <c r="I54" s="41" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55">
         <v>2020</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="41" t="s">
+      <c r="D55" s="41" t="s">
         <v>694</v>
       </c>
-      <c r="D55" s="41" t="s">
+      <c r="E55" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E55" s="41" t="s">
+      <c r="F55" s="41" t="s">
         <v>829</v>
       </c>
-      <c r="F55" s="41" t="s">
+      <c r="G55" s="41" t="s">
         <v>933</v>
       </c>
-      <c r="G55" s="41" t="s">
+      <c r="H55" s="41" t="s">
         <v>1040</v>
       </c>
-      <c r="H55" s="41" t="s">
+      <c r="I55" s="41" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56">
         <v>2020</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="41" t="s">
+      <c r="D56" s="41" t="s">
         <v>695</v>
       </c>
-      <c r="D56" s="41" t="s">
+      <c r="E56" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E56" s="41" t="s">
+      <c r="F56" s="41" t="s">
         <v>830</v>
       </c>
-      <c r="F56" s="41" t="s">
+      <c r="G56" s="41" t="s">
         <v>934</v>
       </c>
-      <c r="G56" s="41" t="s">
+      <c r="H56" s="41" t="s">
         <v>1041</v>
       </c>
-      <c r="H56" s="41" t="s">
+      <c r="I56" s="41" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57">
         <v>2020</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="D57" s="41" t="s">
         <v>696</v>
       </c>
-      <c r="D57" s="41" t="s">
+      <c r="E57" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E57" s="41" t="s">
+      <c r="F57" s="41" t="s">
         <v>812</v>
       </c>
-      <c r="F57" s="41" t="s">
+      <c r="G57" s="41" t="s">
         <v>935</v>
       </c>
-      <c r="G57" s="41" t="s">
+      <c r="H57" s="41" t="s">
         <v>1042</v>
       </c>
-      <c r="H57" s="41">
+      <c r="I57" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58">
         <v>2020</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="41" t="s">
+      <c r="D58" s="41" t="s">
         <v>663</v>
       </c>
-      <c r="D58" s="41" t="s">
+      <c r="E58" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E58" s="41" t="s">
+      <c r="F58" s="41" t="s">
         <v>831</v>
       </c>
-      <c r="F58" s="41" t="s">
+      <c r="G58" s="41" t="s">
         <v>936</v>
       </c>
-      <c r="G58" s="41" t="s">
+      <c r="H58" s="41" t="s">
         <v>1043</v>
       </c>
-      <c r="H58" s="41">
+      <c r="I58" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59">
         <v>2020</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C59" s="41" t="s">
+      <c r="D59" s="41" t="s">
         <v>670</v>
       </c>
-      <c r="D59" s="41" t="s">
+      <c r="E59" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E59" s="41" t="s">
+      <c r="F59" s="41" t="s">
         <v>832</v>
       </c>
-      <c r="F59" s="41" t="s">
+      <c r="G59" s="41" t="s">
         <v>937</v>
       </c>
-      <c r="G59" s="41" t="s">
+      <c r="H59" s="41" t="s">
         <v>1033</v>
       </c>
-      <c r="H59" s="41" t="s">
+      <c r="I59" s="41" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60">
         <v>2020</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="D60" s="41" t="s">
         <v>697</v>
       </c>
-      <c r="D60" s="41" t="s">
+      <c r="E60" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E60" s="41" t="s">
+      <c r="F60" s="41" t="s">
         <v>833</v>
       </c>
-      <c r="F60" s="41" t="s">
+      <c r="G60" s="41" t="s">
         <v>938</v>
       </c>
-      <c r="G60" s="41" t="s">
+      <c r="H60" s="41" t="s">
         <v>1044</v>
       </c>
-      <c r="H60" s="41" t="s">
+      <c r="I60" s="41" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61">
         <v>2020</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="41" t="s">
+      <c r="D61" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="D61" s="41" t="s">
+      <c r="E61" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E61" s="41" t="s">
+      <c r="F61" s="41" t="s">
         <v>834</v>
       </c>
-      <c r="F61" s="41" t="s">
+      <c r="G61" s="41" t="s">
         <v>939</v>
       </c>
-      <c r="G61" s="41" t="s">
+      <c r="H61" s="41" t="s">
         <v>1045</v>
       </c>
-      <c r="H61" s="41">
+      <c r="I61" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62">
         <v>2020</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="D62" s="41" t="s">
         <v>698</v>
       </c>
-      <c r="D62" s="41" t="s">
+      <c r="E62" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E62" s="41" t="s">
+      <c r="F62" s="41" t="s">
         <v>835</v>
       </c>
-      <c r="F62" s="41" t="s">
+      <c r="G62" s="41" t="s">
         <v>940</v>
       </c>
-      <c r="G62" s="41" t="s">
+      <c r="H62" s="41" t="s">
         <v>1046</v>
       </c>
-      <c r="H62" s="41" t="s">
+      <c r="I62" s="41" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63">
         <v>2020</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="41" t="s">
+      <c r="D63" s="41" t="s">
         <v>699</v>
       </c>
-      <c r="D63" s="41" t="s">
+      <c r="E63" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E63" s="41" t="s">
+      <c r="F63" s="41" t="s">
         <v>836</v>
       </c>
-      <c r="F63" s="41" t="s">
+      <c r="G63" s="41" t="s">
         <v>941</v>
       </c>
-      <c r="G63" s="41" t="s">
+      <c r="H63" s="41" t="s">
         <v>1047</v>
       </c>
-      <c r="H63" s="41" t="s">
+      <c r="I63" s="41" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64">
         <v>2020</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="41" t="s">
+      <c r="D64" s="41" t="s">
         <v>662</v>
       </c>
-      <c r="D64" s="41" t="s">
+      <c r="E64" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E64" s="41" t="s">
+      <c r="F64" s="41" t="s">
         <v>837</v>
       </c>
-      <c r="F64" s="41" t="s">
+      <c r="G64" s="41" t="s">
         <v>942</v>
       </c>
-      <c r="G64" s="41" t="s">
+      <c r="H64" s="41" t="s">
         <v>1048</v>
       </c>
-      <c r="H64" s="41" t="s">
+      <c r="I64" s="41" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65">
         <v>2020</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="41" t="s">
+      <c r="D65" s="41" t="s">
         <v>700</v>
       </c>
-      <c r="D65" s="41" t="s">
+      <c r="E65" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E65" s="41" t="s">
+      <c r="F65" s="41" t="s">
         <v>838</v>
       </c>
-      <c r="F65" s="41" t="s">
+      <c r="G65" s="41" t="s">
         <v>943</v>
       </c>
-      <c r="G65" s="41" t="s">
+      <c r="H65" s="41" t="s">
         <v>1049</v>
       </c>
-      <c r="H65" s="41">
+      <c r="I65" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66">
         <v>2020</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="41" t="s">
+      <c r="D66" s="41" t="s">
         <v>693</v>
       </c>
-      <c r="D66" s="41" t="s">
+      <c r="E66" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="E66" s="41" t="s">
+      <c r="F66" s="41" t="s">
         <v>839</v>
       </c>
-      <c r="F66" s="41" t="s">
+      <c r="G66" s="41" t="s">
         <v>944</v>
       </c>
-      <c r="G66" s="41" t="s">
+      <c r="H66" s="41" t="s">
         <v>1050</v>
       </c>
-      <c r="H66" s="41">
+      <c r="I66" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67">
         <v>2020</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="41" t="s">
+      <c r="D67" s="41" t="s">
         <v>701</v>
       </c>
-      <c r="D67" s="41" t="s">
+      <c r="E67" s="41" t="s">
         <v>728</v>
       </c>
-      <c r="E67" s="41" t="s">
+      <c r="F67" s="41" t="s">
         <v>840</v>
       </c>
-      <c r="F67" s="41" t="s">
+      <c r="G67" s="41" t="s">
         <v>945</v>
       </c>
-      <c r="G67" s="41" t="s">
+      <c r="H67" s="41" t="s">
         <v>1051</v>
       </c>
-      <c r="H67" s="41" t="s">
+      <c r="I67" s="41" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="2"/>
-      <c r="C68" s="41"/>
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="41"/>
+      <c r="C68" s="2"/>
       <c r="D68" s="41"/>
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
       <c r="G68" s="41"/>
       <c r="H68" s="41"/>
-    </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="2"/>
-      <c r="C69" s="41"/>
+      <c r="I68" s="41"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="41"/>
+      <c r="C69" s="2"/>
       <c r="D69" s="41"/>
       <c r="E69" s="41"/>
       <c r="F69" s="41"/>
       <c r="G69" s="41"/>
-    </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="2"/>
-      <c r="C70" s="41"/>
+      <c r="H69" s="41"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="41"/>
+      <c r="C70" s="2"/>
       <c r="D70" s="41"/>
       <c r="E70" s="41"/>
       <c r="F70" s="41"/>
       <c r="G70" s="41"/>
-    </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="2"/>
-      <c r="C71" s="41"/>
+      <c r="H70" s="41"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="41"/>
+      <c r="C71" s="2"/>
       <c r="D71" s="41"/>
       <c r="E71" s="41"/>
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
-    </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="2"/>
-      <c r="C72" s="41"/>
+      <c r="H71" s="41"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="41"/>
+      <c r="C72" s="2"/>
       <c r="D72" s="41"/>
       <c r="E72" s="41"/>
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
-    </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="2"/>
-      <c r="C73" s="41"/>
+      <c r="H72" s="41"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="41"/>
+      <c r="C73" s="2"/>
       <c r="D73" s="41"/>
       <c r="E73" s="41"/>
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
-    </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="2"/>
-      <c r="C74" s="41"/>
+      <c r="H73" s="41"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="41"/>
+      <c r="C74" s="2"/>
       <c r="D74" s="41"/>
       <c r="E74" s="41"/>
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
-    </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="2"/>
-      <c r="C75" s="41"/>
+      <c r="H74" s="41"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="41"/>
+      <c r="C75" s="2"/>
       <c r="D75" s="41"/>
       <c r="E75" s="41"/>
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
-    </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="2"/>
-      <c r="C76" s="41"/>
+      <c r="H75" s="41"/>
+    </row>
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="41"/>
+      <c r="C76" s="2"/>
       <c r="D76" s="41"/>
       <c r="E76" s="41"/>
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
-    </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="2"/>
-      <c r="C77" s="41"/>
+      <c r="H76" s="41"/>
+    </row>
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="41"/>
+      <c r="C77" s="2"/>
       <c r="D77" s="41"/>
       <c r="E77" s="41"/>
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
-    </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="2"/>
-      <c r="C78" s="41"/>
+      <c r="H77" s="41"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="41"/>
+      <c r="C78" s="2"/>
       <c r="D78" s="41"/>
       <c r="E78" s="41"/>
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
-    </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="2"/>
-      <c r="C79" s="41"/>
+      <c r="H78" s="41"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="41"/>
+      <c r="C79" s="2"/>
       <c r="D79" s="41"/>
       <c r="E79" s="41"/>
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
-    </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B80" s="2"/>
-      <c r="C80" s="41"/>
+      <c r="H79" s="41"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="41"/>
+      <c r="C80" s="2"/>
       <c r="D80" s="41"/>
       <c r="E80" s="41"/>
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
-    </row>
-    <row r="81" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B81" s="2"/>
-      <c r="C81" s="41"/>
+      <c r="H80" s="41"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="41"/>
+      <c r="C81" s="2"/>
       <c r="D81" s="41"/>
       <c r="E81" s="41"/>
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
-    </row>
-    <row r="82" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B82" s="2"/>
-      <c r="C82" s="41"/>
+      <c r="H81" s="41"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="41"/>
+      <c r="C82" s="2"/>
       <c r="D82" s="41"/>
       <c r="E82" s="41"/>
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
-    </row>
-    <row r="83" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B83" s="2"/>
-      <c r="C83" s="41"/>
+      <c r="H82" s="41"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="41"/>
+      <c r="C83" s="2"/>
       <c r="D83" s="41"/>
       <c r="E83" s="41"/>
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
-    </row>
-    <row r="84" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B84" s="2"/>
-      <c r="C84" s="41"/>
+      <c r="H83" s="41"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="41"/>
+      <c r="C84" s="2"/>
       <c r="D84" s="41"/>
       <c r="E84" s="41"/>
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
-    </row>
-    <row r="85" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B85" s="2"/>
-      <c r="C85" s="41"/>
+      <c r="H84" s="41"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="41"/>
+      <c r="C85" s="2"/>
       <c r="D85" s="41"/>
       <c r="E85" s="41"/>
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
-    </row>
-    <row r="86" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B86" s="2"/>
-      <c r="C86" s="41"/>
+      <c r="H85" s="41"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="41"/>
+      <c r="C86" s="2"/>
       <c r="D86" s="41"/>
       <c r="E86" s="41"/>
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
-    </row>
-    <row r="87" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B87" s="2"/>
-      <c r="C87" s="41"/>
+      <c r="H86" s="41"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="41"/>
+      <c r="C87" s="2"/>
       <c r="D87" s="41"/>
       <c r="E87" s="41"/>
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
-    </row>
-    <row r="88" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B88" s="2"/>
-      <c r="C88" s="41"/>
+      <c r="H87" s="41"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="41"/>
+      <c r="C88" s="2"/>
       <c r="D88" s="41"/>
       <c r="E88" s="41"/>
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
-    </row>
-    <row r="89" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B89" s="2"/>
-      <c r="C89" s="41"/>
+      <c r="H88" s="41"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="41"/>
+      <c r="C89" s="2"/>
       <c r="D89" s="41"/>
       <c r="E89" s="41"/>
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
-    </row>
-    <row r="90" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="2"/>
-      <c r="C90" s="41"/>
+      <c r="H89" s="41"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="41"/>
+      <c r="C90" s="2"/>
       <c r="D90" s="41"/>
       <c r="E90" s="41"/>
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
-    </row>
-    <row r="91" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B91" s="2"/>
-      <c r="C91" s="41"/>
+      <c r="H90" s="41"/>
+    </row>
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="41"/>
+      <c r="C91" s="2"/>
       <c r="D91" s="41"/>
       <c r="E91" s="41"/>
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
-    </row>
-    <row r="92" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B92" s="2"/>
-      <c r="C92" s="41"/>
+      <c r="H91" s="41"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="41"/>
+      <c r="C92" s="2"/>
       <c r="D92" s="41"/>
       <c r="E92" s="41"/>
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
-    </row>
-    <row r="93" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B93" s="2"/>
-      <c r="C93" s="41"/>
+      <c r="H92" s="41"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="41"/>
+      <c r="C93" s="2"/>
       <c r="D93" s="41"/>
       <c r="E93" s="41"/>
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
-    </row>
-    <row r="94" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B94" s="2"/>
-      <c r="C94" s="41"/>
+      <c r="H93" s="41"/>
+    </row>
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="41"/>
+      <c r="C94" s="2"/>
       <c r="D94" s="41"/>
       <c r="E94" s="41"/>
       <c r="F94" s="41"/>
       <c r="G94" s="41"/>
-    </row>
-    <row r="95" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B95" s="2"/>
-      <c r="C95" s="41"/>
+      <c r="H94" s="41"/>
+    </row>
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="41"/>
+      <c r="C95" s="2"/>
       <c r="D95" s="41"/>
       <c r="E95" s="41"/>
       <c r="F95" s="41"/>
       <c r="G95" s="41"/>
-    </row>
-    <row r="96" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B96" s="2"/>
-      <c r="C96" s="41"/>
+      <c r="H95" s="41"/>
+    </row>
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="41"/>
+      <c r="C96" s="2"/>
       <c r="D96" s="41"/>
       <c r="E96" s="41"/>
       <c r="F96" s="41"/>
       <c r="G96" s="41"/>
-    </row>
-    <row r="97" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B97" s="2"/>
-      <c r="C97" s="41"/>
+      <c r="H96" s="41"/>
+    </row>
+    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="41"/>
+      <c r="C97" s="2"/>
       <c r="D97" s="41"/>
       <c r="E97" s="41"/>
       <c r="F97" s="41"/>
       <c r="G97" s="41"/>
-    </row>
-    <row r="98" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B98" s="2"/>
-      <c r="C98" s="41"/>
+      <c r="H97" s="41"/>
+    </row>
+    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="41"/>
+      <c r="C98" s="2"/>
       <c r="D98" s="41"/>
       <c r="E98" s="41"/>
       <c r="F98" s="41"/>
       <c r="G98" s="41"/>
-    </row>
-    <row r="99" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B99" s="2"/>
-      <c r="C99" s="41"/>
+      <c r="H98" s="41"/>
+    </row>
+    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="41"/>
+      <c r="C99" s="2"/>
       <c r="D99" s="41"/>
       <c r="E99" s="41"/>
       <c r="F99" s="41"/>
       <c r="G99" s="41"/>
-    </row>
-    <row r="100" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B100" s="2"/>
-      <c r="C100" s="41"/>
+      <c r="H99" s="41"/>
+    </row>
+    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="41"/>
+      <c r="C100" s="2"/>
       <c r="D100" s="41"/>
       <c r="E100" s="41"/>
       <c r="F100" s="41"/>
       <c r="G100" s="41"/>
-    </row>
-    <row r="101" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B101" s="2"/>
-      <c r="C101" s="41"/>
+      <c r="H100" s="41"/>
+    </row>
+    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="41"/>
+      <c r="C101" s="2"/>
       <c r="D101" s="41"/>
       <c r="E101" s="41"/>
       <c r="F101" s="41"/>
       <c r="G101" s="41"/>
-    </row>
-    <row r="102" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="2"/>
-      <c r="C102" s="41"/>
+      <c r="H101" s="41"/>
+    </row>
+    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="41"/>
+      <c r="C102" s="2"/>
       <c r="D102" s="41"/>
       <c r="E102" s="41"/>
       <c r="F102" s="41"/>
       <c r="G102" s="41"/>
-    </row>
-    <row r="103" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B103" s="2"/>
-      <c r="C103" s="41"/>
+      <c r="H102" s="41"/>
+    </row>
+    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="41"/>
+      <c r="C103" s="2"/>
       <c r="D103" s="41"/>
       <c r="E103" s="41"/>
       <c r="F103" s="41"/>
       <c r="G103" s="41"/>
-    </row>
-    <row r="104" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B104" s="2"/>
-      <c r="C104" s="41"/>
+      <c r="H103" s="41"/>
+    </row>
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="41"/>
+      <c r="C104" s="2"/>
       <c r="D104" s="41"/>
       <c r="E104" s="41"/>
       <c r="F104" s="41"/>
       <c r="G104" s="41"/>
-    </row>
-    <row r="105" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B105" s="2"/>
-      <c r="C105" s="41"/>
+      <c r="H104" s="41"/>
+    </row>
+    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="41"/>
+      <c r="C105" s="2"/>
       <c r="D105" s="41"/>
       <c r="E105" s="41"/>
       <c r="F105" s="41"/>
       <c r="G105" s="41"/>
-    </row>
-    <row r="106" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B106" s="2"/>
-      <c r="C106" s="41"/>
+      <c r="H105" s="41"/>
+    </row>
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="41"/>
+      <c r="C106" s="2"/>
       <c r="D106" s="41"/>
       <c r="E106" s="41"/>
       <c r="F106" s="41"/>
       <c r="G106" s="41"/>
-    </row>
-    <row r="107" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B107" s="2"/>
-      <c r="C107" s="41"/>
+      <c r="H106" s="41"/>
+    </row>
+    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="41"/>
+      <c r="C107" s="2"/>
       <c r="D107" s="41"/>
       <c r="E107" s="41"/>
       <c r="F107" s="41"/>
       <c r="G107" s="41"/>
-    </row>
-    <row r="108" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B108" s="2"/>
-      <c r="C108" s="41"/>
+      <c r="H107" s="41"/>
+    </row>
+    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="41"/>
+      <c r="C108" s="2"/>
       <c r="D108" s="41"/>
       <c r="E108" s="41"/>
       <c r="F108" s="41"/>
       <c r="G108" s="41"/>
-    </row>
-    <row r="109" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B109" s="2"/>
-      <c r="C109" s="41"/>
+      <c r="H108" s="41"/>
+    </row>
+    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="41"/>
+      <c r="C109" s="2"/>
       <c r="D109" s="41"/>
       <c r="E109" s="41"/>
       <c r="F109" s="41"/>
       <c r="G109" s="41"/>
-    </row>
-    <row r="110" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B110" s="2"/>
-      <c r="C110" s="41"/>
+      <c r="H109" s="41"/>
+    </row>
+    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="41"/>
+      <c r="C110" s="2"/>
       <c r="D110" s="41"/>
       <c r="E110" s="41"/>
       <c r="F110" s="41"/>
       <c r="G110" s="41"/>
-    </row>
-    <row r="111" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B111" s="2"/>
-      <c r="C111" s="41"/>
+      <c r="H110" s="41"/>
+    </row>
+    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="41"/>
+      <c r="C111" s="2"/>
       <c r="D111" s="41"/>
       <c r="E111" s="41"/>
       <c r="F111" s="41"/>
       <c r="G111" s="41"/>
+      <c r="H111" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
